--- a/Results/DLT - 10 simulations average.xlsx
+++ b/Results/DLT - 10 simulations average.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/Desktop/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/Desktop/waqs/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1D4FC8-E486-714D-B8D4-621A3C5BDCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6F7329-6C36-1E46-B59E-742EECBDE815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>Avg. TCP Throughput (Mbps)</t>
-  </si>
-  <si>
-    <t>Avg. QUIC Throughput (Mbps)</t>
-  </si>
-  <si>
-    <t>Distance from eNB (m)</t>
-  </si>
-  <si>
     <t>64KB</t>
   </si>
   <si>
@@ -66,6 +57,15 @@
   </si>
   <si>
     <t>Reduction (%)</t>
+  </si>
+  <si>
+    <t>Avg. TCP DLT (Mbps)</t>
+  </si>
+  <si>
+    <t>Avg. QUIC DLT (Mbps)</t>
+  </si>
+  <si>
+    <t>File Size</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg. TCP Throughput (Mbps)</c:v>
+                  <c:v>Avg. TCP DLT (Mbps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -248,7 +248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Avg. QUIC Throughput (Mbps)</c:v>
+                  <c:v>Avg. QUIC DLT (Mbps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1393,9 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C5CC41-2414-4345-B181-FE8F3407EF9B}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1407,43 +1405,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3.4</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3.76</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4.38</v>
@@ -1458,7 +1456,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6.62</v>
@@ -1473,7 +1471,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>17.600000000000001</v>

--- a/Results/DLT - 10 simulations average.xlsx
+++ b/Results/DLT - 10 simulations average.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadeid/QUIC-vs-TCP-A-Performance-Evaluation-over-LTE-with-NS-3/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC7945F-2776-3741-8420-146BCFFF0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F271DE67-7D3D-EA41-86F7-0BCB8713B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{F39ACBC6-E416-9A48-862C-2D5A23947300}"/>
   </bookViews>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>64KB</t>
-  </si>
-  <si>
-    <t>256KB</t>
-  </si>
-  <si>
-    <t>512KB</t>
-  </si>
-  <si>
-    <t>1MB</t>
-  </si>
-  <si>
-    <t>2MB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Reduction (%)</t>
   </si>
@@ -63,6 +48,12 @@
   </si>
   <si>
     <t>File Size</t>
+  </si>
+  <si>
+    <t>Time saved</t>
+  </si>
+  <si>
+    <t>Time saved in minutes</t>
   </si>
 </sst>
 </file>
@@ -115,6 +106,2298 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0" dirty="0">
+                <a:solidFill>
+                  <a:prstClr val="white">
+                    <a:lumMod val="85000"/>
+                  </a:prstClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Avg. Download Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. TCP DLT (Mbps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A48-3A41-BE75-B4A2088EBEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg. QUIC DLT (Mbps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A48-3A41-BE75-B4A2088EBEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="829703872"/>
+        <c:axId val="830177504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="829703872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="white">
+                        <a:lumMod val="75000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>File Size [KB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830177504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="830177504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                    <a:solidFill>
+                      <a:prstClr val="white">
+                        <a:lumMod val="75000"/>
+                      </a:prstClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Download Time [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-IL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829703872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reduction (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>85.844748858447488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.13293051359517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.772727272727266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.588796944621265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.272071453108907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.118824168153267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.223988658802071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.431745548622729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.914661824784375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87A4-D448-916C-BCDA013ECF0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1476337648"/>
+        <c:axId val="964253583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1476337648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964253583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="964253583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476337648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>811337</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>26314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1947941</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156421</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE32345-18F5-326C-666E-C2DF0E1FE00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1071734</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1477403</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE75940-C2CB-B6DD-E2B2-D69D8A039DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C5CC41-2414-4345-B181-FE8F3407EF9B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,42 +2708,76 @@
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>64</v>
       </c>
       <c r="B2">
         <v>3.4</v>
       </c>
+      <c r="E2">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <f>(B2-C2)</f>
+        <v>3.4</v>
+      </c>
+      <c r="H2">
+        <f>(G2/60)</f>
+        <v>5.6666666666666664E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>256</v>
       </c>
       <c r="B3">
         <v>3.76</v>
       </c>
+      <c r="E3">
+        <v>256</v>
+      </c>
+      <c r="G3">
+        <f>(B3-C3)</f>
+        <v>3.76</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">(G3/60)</f>
+        <v>6.2666666666666662E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>512</v>
       </c>
       <c r="B4">
         <v>4.38</v>
@@ -468,14 +2785,25 @@
       <c r="C4">
         <v>0.62</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>512</v>
+      </c>
+      <c r="F4">
         <f>((B4-C4)/B4)*100</f>
         <v>85.844748858447488</v>
       </c>
+      <c r="G4">
+        <f>(B4-C4)</f>
+        <v>3.76</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6.2666666666666662E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1024</v>
       </c>
       <c r="B5">
         <v>6.62</v>
@@ -483,14 +2811,25 @@
       <c r="C5">
         <v>1.58</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="0">((B5-C5)/B5)*100</f>
+      <c r="E5">
+        <v>1024</v>
+      </c>
+      <c r="F5">
+        <f>((B5-C5)/B5)*100</f>
         <v>76.13293051359517</v>
       </c>
+      <c r="G5">
+        <f>(B5-C5)</f>
+        <v>5.04</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2048</v>
       </c>
       <c r="B6">
         <v>17.600000000000001</v>
@@ -498,12 +2837,180 @@
       <c r="C6">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>2048</v>
+      </c>
+      <c r="F6">
+        <f>((B6-C6)/B6)*100</f>
+        <v>74.772727272727266</v>
+      </c>
+      <c r="G6">
+        <f>(B6-C6)</f>
+        <v>13.16</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>74.772727272727266</v>
+        <v>0.21933333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3072</v>
+      </c>
+      <c r="B7">
+        <v>31.42</v>
+      </c>
+      <c r="C7">
+        <v>7.67</v>
+      </c>
+      <c r="E7">
+        <v>3072</v>
+      </c>
+      <c r="F7">
+        <f>((B7-C7)/B7)*100</f>
+        <v>75.588796944621265</v>
+      </c>
+      <c r="G7">
+        <f>(B7-C7)</f>
+        <v>23.75</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5120</v>
+      </c>
+      <c r="B8">
+        <v>58.22</v>
+      </c>
+      <c r="C8">
+        <v>12.65</v>
+      </c>
+      <c r="E8">
+        <v>5120</v>
+      </c>
+      <c r="F8">
+        <f>((B8-C8)/B8)*100</f>
+        <v>78.272071453108907</v>
+      </c>
+      <c r="G8">
+        <f>(B8-C8)</f>
+        <v>45.57</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.75949999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10240</v>
+      </c>
+      <c r="B9">
+        <v>128.93</v>
+      </c>
+      <c r="C9">
+        <v>30.79</v>
+      </c>
+      <c r="E9">
+        <v>10240</v>
+      </c>
+      <c r="F9">
+        <f>((B9-C9)/B9)*100</f>
+        <v>76.118824168153267</v>
+      </c>
+      <c r="G9">
+        <f>(B9-C9)</f>
+        <v>98.140000000000015</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.6356666666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15360</v>
+      </c>
+      <c r="B10">
+        <v>197.51</v>
+      </c>
+      <c r="C10">
+        <v>46.96</v>
+      </c>
+      <c r="E10">
+        <v>15360</v>
+      </c>
+      <c r="F10">
+        <f>((B10-C10)/B10)*100</f>
+        <v>76.223988658802071</v>
+      </c>
+      <c r="G10">
+        <f>(B10-C10)</f>
+        <v>150.54999999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.5091666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20480</v>
+      </c>
+      <c r="B11">
+        <v>262.83999999999997</v>
+      </c>
+      <c r="C11">
+        <v>56.69</v>
+      </c>
+      <c r="E11">
+        <v>20480</v>
+      </c>
+      <c r="F11">
+        <f>((B11-C11)/B11)*100</f>
+        <v>78.431745548622729</v>
+      </c>
+      <c r="G11">
+        <f>(B11-C11)</f>
+        <v>206.14999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.4358333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>25600</v>
+      </c>
+      <c r="B12">
+        <v>330.45</v>
+      </c>
+      <c r="C12">
+        <v>79.59</v>
+      </c>
+      <c r="E12">
+        <v>25600</v>
+      </c>
+      <c r="F12">
+        <f>((B12-C12)/B12)*100</f>
+        <v>75.914661824784375</v>
+      </c>
+      <c r="G12">
+        <f>(B12-C12)</f>
+        <v>250.85999999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.181</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>